--- a/DataQuality/EMEA_ AML_MARKET_NAM_DQ_FRAMEWORK_V3_20160713.xlsx
+++ b/DataQuality/EMEA_ AML_MARKET_NAM_DQ_FRAMEWORK_V3_20160713.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -3916,8 +3916,8 @@
   </sheetPr>
   <dimension ref="A1:U188"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
@@ -17792,8 +17792,8 @@
   </sheetPr>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33696,8 +33696,8 @@
   </sheetPr>
   <dimension ref="A1:AX188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataQuality/EMEA_ AML_MARKET_NAM_DQ_FRAMEWORK_V3_20160713.xlsx
+++ b/DataQuality/EMEA_ AML_MARKET_NAM_DQ_FRAMEWORK_V3_20160713.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Python\DataQuality\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +146,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +266,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +386,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -425,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +506,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -545,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -559,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -631,7 +626,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +746,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -785,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -882,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -905,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3578,7 +3573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3613,7 +3608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17792,7 +17787,7 @@
   </sheetPr>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -26603,8 +26598,8 @@
   </sheetPr>
   <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:W6"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33696,8 +33691,8 @@
   </sheetPr>
   <dimension ref="A1:AX188"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33721,7 +33716,8 @@
     <col min="18" max="28" width="10.375" style="62" customWidth="1"/>
     <col min="29" max="29" width="12.125" style="62" customWidth="1"/>
     <col min="30" max="30" width="16" style="62" customWidth="1"/>
-    <col min="31" max="38" width="10.375" style="62" customWidth="1"/>
+    <col min="31" max="31" width="13.875" style="62" customWidth="1"/>
+    <col min="32" max="38" width="10.375" style="62" customWidth="1"/>
     <col min="39" max="39" width="13.125" style="62" customWidth="1"/>
     <col min="40" max="42" width="10.375" style="62" customWidth="1"/>
     <col min="43" max="43" width="13.125" style="62" customWidth="1"/>

--- a/DataQuality/EMEA_ AML_MARKET_NAM_DQ_FRAMEWORK_V3_20160713.xlsx
+++ b/DataQuality/EMEA_ AML_MARKET_NAM_DQ_FRAMEWORK_V3_20160713.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Python\DataQuality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +151,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +271,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +391,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +511,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +631,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -688,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -746,7 +751,7 @@
     <author>s</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -831,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -854,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -900,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3224,7 +3229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3508,6 +3513,16 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -3573,7 +3588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3608,7 +3623,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -29851,8 +29866,8 @@
   </sheetPr>
   <dimension ref="A1:U146"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29874,7 +29889,7 @@
     <col min="16" max="16" width="27.125" style="62" customWidth="1"/>
     <col min="17" max="17" width="18.125" style="62" customWidth="1"/>
     <col min="18" max="18" width="19.25" style="62" customWidth="1"/>
-    <col min="19" max="19" width="86.75" style="62" customWidth="1"/>
+    <col min="19" max="19" width="86.75" style="146" customWidth="1"/>
     <col min="20" max="20" width="38.25" style="62" customWidth="1"/>
     <col min="21" max="21" width="65" style="62" customWidth="1"/>
     <col min="22" max="22" width="26.125" style="13" customWidth="1"/>
@@ -29937,7 +29952,7 @@
       <c r="R1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="144" t="s">
         <v>26</v>
       </c>
       <c r="T1" s="65" t="s">
@@ -29947,7 +29962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>29</v>
       </c>
@@ -29995,7 +30010,7 @@
       <c r="R2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="54" t="str">
+      <c r="S2" s="143" t="str">
         <f>"select '"&amp;C2&amp;"','"&amp;IF(LEN(G2)=0,"-",CONCATENATE(E2,".",G2))&amp;IF(LEN(H2)=0,""," ,"&amp;E2&amp;"."&amp;H2)&amp;IF(LEN(I2)=0,""," ,"&amp;E2&amp;"."&amp;I2)&amp;IF(LEN(J2)=0,""," ,"&amp;E2&amp;"."&amp;J2)&amp;IF(LEN(K2)=0,""," ,"&amp;E2&amp;"."&amp;K2)&amp;IF(LEN(L2)=0,""," ,"&amp;E2&amp;"."&amp;L2)&amp;IF(LEN(M2)=0,""," ,"&amp;E2&amp;"."&amp;M2)&amp;IF(LEN(N2)=0,""," ,"&amp;E2&amp;"."&amp;N2)&amp;"' pknames ,"&amp;IF(LEN(G2)=0,"'-'",CONCATENATE(E2,".",G2))&amp;" pk1,"&amp;IF(LEN(H2)=0,"'-'",CONCATENATE(E2,".",H2))&amp;" PK2,"&amp;IF(LEN(I2)=0,"'-'",CONCATENATE(E2,".",I2))&amp;" pk3,"&amp;IF(LEN(J2)=0,"'-'",CONCATENATE(E2,".",J2))&amp;" pk4,"&amp;IF(LEN(K2)=0,"'-'",CONCATENATE(E2,".",K2))&amp;" pk5,"&amp;IF(LEN(L2)=0,"'-'",CONCATENATE(E2,".",L2))&amp;" pk6,"&amp;IF(LEN(M2)=0,"'-'",CONCATENATE(E2,".",M2))&amp;" pk7,"&amp;IF(LEN(N2)=0,"'-'",CONCATENATE(E2,".",N2))&amp;" pk8,"&amp;E2&amp;"."&amp;F2&amp;" errcol   from "&amp;E2&amp;" where Not("&amp;E2&amp;"."&amp;F2&amp;" is   null or "&amp;E2&amp;"."&amp;F2&amp;" = '') and ("&amp;F2&amp;" rlike  "&amp;O2&amp;" )"</f>
         <v>select 'DQ_FMT_AMC_BROKER_ACCOUNT_1','AMC_BROKER_ACCOUNT.ETL_FILEID ,AMC_BROKER_ACCOUNT.ETL_BATCHID ,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT ,AMC_BROKER_ACCOUNT.IMSNUMBER' pknames ,AMC_BROKER_ACCOUNT.ETL_FILEID pk1,AMC_BROKER_ACCOUNT.ETL_BATCHID PK2,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT pk3,AMC_BROKER_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_BROKER_ACCOUNT.OPENDATE errcol   from AMC_BROKER_ACCOUNT where Not(AMC_BROKER_ACCOUNT.OPENDATE is   null or AMC_BROKER_ACCOUNT.OPENDATE = '') and (OPENDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )</v>
       </c>
@@ -30008,7 +30023,7 @@
         <v>APP_AMLMKTE_L1~DQ_FMT_AMC_BROKER_ACCOUNT_1~AMC_BROKER_ACCOUNT.OPENDATE~L1_AMLMKT_AMCG~AMC_BROKER_ACCOUNT~OPENDATE~5~select 'DQ_FMT_AMC_BROKER_ACCOUNT_1','AMC_BROKER_ACCOUNT.ETL_FILEID ,AMC_BROKER_ACCOUNT.ETL_BATCHID ,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT ,AMC_BROKER_ACCOUNT.IMSNUMBER' pknames ,AMC_BROKER_ACCOUNT.ETL_FILEID pk1,AMC_BROKER_ACCOUNT.ETL_BATCHID PK2,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT pk3,AMC_BROKER_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_BROKER_ACCOUNT.OPENDATE errcol   from AMC_BROKER_ACCOUNT where Not(AMC_BROKER_ACCOUNT.OPENDATE is   null or AMC_BROKER_ACCOUNT.OPENDATE = '') and (OPENDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="51" t="s">
         <v>29</v>
       </c>
@@ -30056,7 +30071,7 @@
       <c r="R3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="54" t="str">
+      <c r="S3" s="143" t="str">
         <f t="shared" ref="S3:S24" si="2">"select '"&amp;C3&amp;"','"&amp;IF(LEN(G3)=0,"-",CONCATENATE(E3,".",G3))&amp;IF(LEN(H3)=0,""," ,"&amp;E3&amp;"."&amp;H3)&amp;IF(LEN(I3)=0,""," ,"&amp;E3&amp;"."&amp;I3)&amp;IF(LEN(J3)=0,""," ,"&amp;E3&amp;"."&amp;J3)&amp;IF(LEN(K3)=0,""," ,"&amp;E3&amp;"."&amp;K3)&amp;IF(LEN(L3)=0,""," ,"&amp;E3&amp;"."&amp;L3)&amp;IF(LEN(M3)=0,""," ,"&amp;E3&amp;"."&amp;M3)&amp;IF(LEN(N3)=0,""," ,"&amp;E3&amp;"."&amp;N3)&amp;"' pknames ,"&amp;IF(LEN(G3)=0,"'-'",CONCATENATE(E3,".",G3))&amp;" pk1,"&amp;IF(LEN(H3)=0,"'-'",CONCATENATE(E3,".",H3))&amp;" PK2,"&amp;IF(LEN(I3)=0,"'-'",CONCATENATE(E3,".",I3))&amp;" pk3,"&amp;IF(LEN(J3)=0,"'-'",CONCATENATE(E3,".",J3))&amp;" pk4,"&amp;IF(LEN(K3)=0,"'-'",CONCATENATE(E3,".",K3))&amp;" pk5,"&amp;IF(LEN(L3)=0,"'-'",CONCATENATE(E3,".",L3))&amp;" pk6,"&amp;IF(LEN(M3)=0,"'-'",CONCATENATE(E3,".",M3))&amp;" pk7,"&amp;IF(LEN(N3)=0,"'-'",CONCATENATE(E3,".",N3))&amp;" pk8,"&amp;E3&amp;"."&amp;F3&amp;" errcol   from "&amp;E3&amp;" where Not("&amp;E3&amp;"."&amp;F3&amp;" is   null or "&amp;E3&amp;"."&amp;F3&amp;" = '') and ("&amp;F3&amp;" rlike  "&amp;O3&amp;" )"</f>
         <v>select 'DQ_FMT_AMC_BROKER_ACCOUNT_2','AMC_BROKER_ACCOUNT.ETL_FILEID ,AMC_BROKER_ACCOUNT.ETL_BATCHID ,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT ,AMC_BROKER_ACCOUNT.IMSNUMBER' pknames ,AMC_BROKER_ACCOUNT.ETL_FILEID pk1,AMC_BROKER_ACCOUNT.ETL_BATCHID PK2,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT pk3,AMC_BROKER_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_BROKER_ACCOUNT.LASTACTIVITYDATE errcol   from AMC_BROKER_ACCOUNT where Not(AMC_BROKER_ACCOUNT.LASTACTIVITYDATE is   null or AMC_BROKER_ACCOUNT.LASTACTIVITYDATE = '') and (LASTACTIVITYDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )</v>
       </c>
@@ -30069,7 +30084,7 @@
         <v>APP_AMLMKTE_L1~DQ_FMT_AMC_BROKER_ACCOUNT_2~AMC_BROKER_ACCOUNT.LASTACTIVITYDATE~L1_AMLMKT_AMCG~AMC_BROKER_ACCOUNT~LASTACTIVITYDATE~5~select 'DQ_FMT_AMC_BROKER_ACCOUNT_2','AMC_BROKER_ACCOUNT.ETL_FILEID ,AMC_BROKER_ACCOUNT.ETL_BATCHID ,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT ,AMC_BROKER_ACCOUNT.IMSNUMBER' pknames ,AMC_BROKER_ACCOUNT.ETL_FILEID pk1,AMC_BROKER_ACCOUNT.ETL_BATCHID PK2,AMC_BROKER_ACCOUNT.EAP_AS_OF_DT pk3,AMC_BROKER_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_BROKER_ACCOUNT.LASTACTIVITYDATE errcol   from AMC_BROKER_ACCOUNT where Not(AMC_BROKER_ACCOUNT.LASTACTIVITYDATE is   null or AMC_BROKER_ACCOUNT.LASTACTIVITYDATE = '') and (LASTACTIVITYDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
         <v>29</v>
       </c>
@@ -30117,7 +30132,7 @@
       <c r="R4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="54" t="str">
+      <c r="S4" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_AMC_CUST_ACCOUNT_1','AMC_CUST_ACCOUNT.ETL_FILEID ,AMC_CUST_ACCOUNT.ETL_BATCHID ,AMC_CUST_ACCOUNT.EAP_AS_OF_DT ,AMC_CUST_ACCOUNT.IMSNUMBER' pknames ,AMC_CUST_ACCOUNT.ETL_FILEID pk1,AMC_CUST_ACCOUNT.ETL_BATCHID PK2,AMC_CUST_ACCOUNT.EAP_AS_OF_DT pk3,AMC_CUST_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_CUST_ACCOUNT.OPENDATE errcol   from AMC_CUST_ACCOUNT where Not(AMC_CUST_ACCOUNT.OPENDATE is   null or AMC_CUST_ACCOUNT.OPENDATE = '') and (OPENDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )</v>
       </c>
@@ -30130,7 +30145,7 @@
         <v>APP_AMLMKTE_L1~DQ_FMT_AMC_CUST_ACCOUNT_1~AMC_CUST_ACCOUNT.OPENDATE~L1_AMLMKT_AMCG~AMC_CUST_ACCOUNT~OPENDATE~5~select 'DQ_FMT_AMC_CUST_ACCOUNT_1','AMC_CUST_ACCOUNT.ETL_FILEID ,AMC_CUST_ACCOUNT.ETL_BATCHID ,AMC_CUST_ACCOUNT.EAP_AS_OF_DT ,AMC_CUST_ACCOUNT.IMSNUMBER' pknames ,AMC_CUST_ACCOUNT.ETL_FILEID pk1,AMC_CUST_ACCOUNT.ETL_BATCHID PK2,AMC_CUST_ACCOUNT.EAP_AS_OF_DT pk3,AMC_CUST_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_CUST_ACCOUNT.OPENDATE errcol   from AMC_CUST_ACCOUNT where Not(AMC_CUST_ACCOUNT.OPENDATE is   null or AMC_CUST_ACCOUNT.OPENDATE = '') and (OPENDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
         <v>29</v>
       </c>
@@ -30178,7 +30193,7 @@
       <c r="R5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="54" t="str">
+      <c r="S5" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_AMC_CUST_ACCOUNT_2','AMC_CUST_ACCOUNT.ETL_FILEID ,AMC_CUST_ACCOUNT.ETL_BATCHID ,AMC_CUST_ACCOUNT.EAP_AS_OF_DT ,AMC_CUST_ACCOUNT.IMSNUMBER' pknames ,AMC_CUST_ACCOUNT.ETL_FILEID pk1,AMC_CUST_ACCOUNT.ETL_BATCHID PK2,AMC_CUST_ACCOUNT.EAP_AS_OF_DT pk3,AMC_CUST_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_CUST_ACCOUNT.LASTACTIVITYDATE errcol   from AMC_CUST_ACCOUNT where Not(AMC_CUST_ACCOUNT.LASTACTIVITYDATE is   null or AMC_CUST_ACCOUNT.LASTACTIVITYDATE = '') and (LASTACTIVITYDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )</v>
       </c>
@@ -30191,7 +30206,7 @@
         <v>APP_AMLMKTE_L1~DQ_FMT_AMC_CUST_ACCOUNT_2~AMC_CUST_ACCOUNT.LASTACTIVITYDATE~L1_AMLMKT_AMCG~AMC_CUST_ACCOUNT~LASTACTIVITYDATE~5~select 'DQ_FMT_AMC_CUST_ACCOUNT_2','AMC_CUST_ACCOUNT.ETL_FILEID ,AMC_CUST_ACCOUNT.ETL_BATCHID ,AMC_CUST_ACCOUNT.EAP_AS_OF_DT ,AMC_CUST_ACCOUNT.IMSNUMBER' pknames ,AMC_CUST_ACCOUNT.ETL_FILEID pk1,AMC_CUST_ACCOUNT.ETL_BATCHID PK2,AMC_CUST_ACCOUNT.EAP_AS_OF_DT pk3,AMC_CUST_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_CUST_ACCOUNT.LASTACTIVITYDATE errcol   from AMC_CUST_ACCOUNT where Not(AMC_CUST_ACCOUNT.LASTACTIVITYDATE is   null or AMC_CUST_ACCOUNT.LASTACTIVITYDATE = '') and (LASTACTIVITYDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
         <v>29</v>
       </c>
@@ -30239,7 +30254,7 @@
       <c r="R6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="54" t="str">
+      <c r="S6" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_AMC_FIRM_ACCOUNT_1','AMC_FIRM_ACCOUNT.ETL_FILEID ,AMC_FIRM_ACCOUNT.ETL_BATCHID ,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT ,AMC_FIRM_ACCOUNT.IMSNUMBER' pknames ,AMC_FIRM_ACCOUNT.ETL_FILEID pk1,AMC_FIRM_ACCOUNT.ETL_BATCHID PK2,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT pk3,AMC_FIRM_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_FIRM_ACCOUNT.OPENDATE errcol   from AMC_FIRM_ACCOUNT where Not(AMC_FIRM_ACCOUNT.OPENDATE is   null or AMC_FIRM_ACCOUNT.OPENDATE = '') and (OPENDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )</v>
       </c>
@@ -30252,7 +30267,7 @@
         <v>APP_AMLMKTE_L1~DQ_FMT_AMC_FIRM_ACCOUNT_1~AMC_FIRM_ACCOUNT.OPENDATE~L1_AMLMKT_AMCG~AMC_FIRM_ACCOUNT~OPENDATE~5~select 'DQ_FMT_AMC_FIRM_ACCOUNT_1','AMC_FIRM_ACCOUNT.ETL_FILEID ,AMC_FIRM_ACCOUNT.ETL_BATCHID ,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT ,AMC_FIRM_ACCOUNT.IMSNUMBER' pknames ,AMC_FIRM_ACCOUNT.ETL_FILEID pk1,AMC_FIRM_ACCOUNT.ETL_BATCHID PK2,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT pk3,AMC_FIRM_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_FIRM_ACCOUNT.OPENDATE errcol   from AMC_FIRM_ACCOUNT where Not(AMC_FIRM_ACCOUNT.OPENDATE is   null or AMC_FIRM_ACCOUNT.OPENDATE = '') and (OPENDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
         <v>29</v>
       </c>
@@ -30300,7 +30315,7 @@
       <c r="R7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="54" t="str">
+      <c r="S7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_AMC_FIRM_ACCOUNT_2','AMC_FIRM_ACCOUNT.ETL_FILEID ,AMC_FIRM_ACCOUNT.ETL_BATCHID ,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT ,AMC_FIRM_ACCOUNT.IMSNUMBER' pknames ,AMC_FIRM_ACCOUNT.ETL_FILEID pk1,AMC_FIRM_ACCOUNT.ETL_BATCHID PK2,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT pk3,AMC_FIRM_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_FIRM_ACCOUNT.LASTACTIVITYDATE errcol   from AMC_FIRM_ACCOUNT where Not(AMC_FIRM_ACCOUNT.LASTACTIVITYDATE is   null or AMC_FIRM_ACCOUNT.LASTACTIVITYDATE = '') and (LASTACTIVITYDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )</v>
       </c>
@@ -30313,7 +30328,7 @@
         <v>APP_AMLMKTE_L1~DQ_FMT_AMC_FIRM_ACCOUNT_2~AMC_FIRM_ACCOUNT.LASTACTIVITYDATE~L1_AMLMKT_AMCG~AMC_FIRM_ACCOUNT~LASTACTIVITYDATE~5~select 'DQ_FMT_AMC_FIRM_ACCOUNT_2','AMC_FIRM_ACCOUNT.ETL_FILEID ,AMC_FIRM_ACCOUNT.ETL_BATCHID ,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT ,AMC_FIRM_ACCOUNT.IMSNUMBER' pknames ,AMC_FIRM_ACCOUNT.ETL_FILEID pk1,AMC_FIRM_ACCOUNT.ETL_BATCHID PK2,AMC_FIRM_ACCOUNT.EAP_AS_OF_DT pk3,AMC_FIRM_ACCOUNT.IMSNUMBER pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,AMC_FIRM_ACCOUNT.LASTACTIVITYDATE errcol   from AMC_FIRM_ACCOUNT where Not(AMC_FIRM_ACCOUNT.LASTACTIVITYDATE is   null or AMC_FIRM_ACCOUNT.LASTACTIVITYDATE = '') and (LASTACTIVITYDATE rlike   '^(19|20)\\d\\d-(0[1-9]|1[012])-(0[1-9]|[12][0-9]|3[01])T([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9])\\.\\d\\d\\d\\+00:00$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>29</v>
       </c>
@@ -30361,7 +30376,7 @@
       <c r="R8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="54" t="str">
+      <c r="S8" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_1','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30380,7 +30395,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.RPLCD_TRADE_DT errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.RPLCD_TRADE_DT is   null or TRADE_EXECUTION.RPLCD_TRADE_DT = '') and (RPLCD_TRADE_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>29</v>
       </c>
@@ -30428,7 +30443,7 @@
       <c r="R9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="54" t="str">
+      <c r="S9" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_2','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30447,7 +30462,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.STLMT_DT errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.STLMT_DT is   null or TRADE_EXECUTION.STLMT_DT = '') and (STLMT_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="51" t="s">
         <v>29</v>
       </c>
@@ -30495,7 +30510,7 @@
       <c r="R10" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="54" t="str">
+      <c r="S10" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_3','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30514,7 +30529,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.SYS_ENTRY_TM errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.SYS_ENTRY_TM is   null or TRADE_EXECUTION.SYS_ENTRY_TM = '') and (SYS_ENTRY_TM rlike  '^([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9][Z])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
         <v>29</v>
       </c>
@@ -30562,7 +30577,7 @@
       <c r="R11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="54" t="str">
+      <c r="S11" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_4','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30581,7 +30596,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.SYS_ENTRY_DT errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.SYS_ENTRY_DT is   null or TRADE_EXECUTION.SYS_ENTRY_DT = '') and (SYS_ENTRY_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
@@ -30629,7 +30644,7 @@
       <c r="R12" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="54" t="str">
+      <c r="S12" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_5','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30648,7 +30663,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.TRD_EX_EVENT_TM errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.TRD_EX_EVENT_TM is   null or TRADE_EXECUTION.TRD_EX_EVENT_TM = '') and (TRD_EX_EVENT_TM rlike  '^([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9][Z])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
         <v>29</v>
       </c>
@@ -30696,7 +30711,7 @@
       <c r="R13" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="54" t="str">
+      <c r="S13" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_6','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30715,7 +30730,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.TRD_EX_EVENT_DT errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.TRD_EX_EVENT_DT is   null or TRADE_EXECUTION.TRD_EX_EVENT_DT = '') and (TRD_EX_EVENT_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>29</v>
       </c>
@@ -30763,7 +30778,7 @@
       <c r="R14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S14" s="54" t="str">
+      <c r="S14" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_7','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30782,7 +30797,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.TRADE_DT errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.TRADE_DT is   null or TRADE_EXECUTION.TRADE_DT = '') and (TRADE_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
         <v>29</v>
       </c>
@@ -30830,7 +30845,7 @@
       <c r="R15" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="54" t="str">
+      <c r="S15" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_TRADE_EXECUTION_8','TRADE_EXECUTION.
 ETL_FILEID ,TRADE_EXECUTION.ETL_BATCHID ,TRADE_EXECUTION.part_key ,TRADE_EXECUTION.TRADE_INTRL_ID' pknames ,TRADE_EXECUTION.
@@ -30849,7 +30864,7 @@
 ETL_FILEID pk1,TRADE_EXECUTION.ETL_BATCHID PK2,TRADE_EXECUTION.part_key pk3,TRADE_EXECUTION.TRADE_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,TRADE_EXECUTION.TRADE_TM errcol   from TRADE_EXECUTION where Not(TRADE_EXECUTION.TRADE_TM is   null or TRADE_EXECUTION.TRADE_TM = '') and (TRADE_TM rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>29</v>
       </c>
@@ -30897,7 +30912,7 @@
       <c r="R16" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="54" t="str">
+      <c r="S16" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_FRONT_OFFICE_TRXN_1','FRONT_OFFICE_TRXN.
 ETL_FILEID ,FRONT_OFFICE_TRXN.ETL_BATCHID ,FRONT_OFFICE_TRXN.part_key ,FRONT_OFFICE_TRXN.TRXN_INTRL_ID' pknames ,FRONT_OFFICE_TRXN.
@@ -30916,7 +30931,7 @@
 ETL_FILEID pk1,FRONT_OFFICE_TRXN.ETL_BATCHID PK2,FRONT_OFFICE_TRXN.part_key pk3,FRONT_OFFICE_TRXN.TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,FRONT_OFFICE_TRXN.TRXN_EXCTN_DT errcol   from FRONT_OFFICE_TRXN where Not(FRONT_OFFICE_TRXN.TRXN_EXCTN_DT is   null or FRONT_OFFICE_TRXN.TRXN_EXCTN_DT = '') and (TRXN_EXCTN_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
         <v>29</v>
       </c>
@@ -30964,7 +30979,7 @@
       <c r="R17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="54" t="str">
+      <c r="S17" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_FRONT_OFFICE_TRXN_2','FRONT_OFFICE_TRXN.
 ETL_FILEID ,FRONT_OFFICE_TRXN.ETL_BATCHID ,FRONT_OFFICE_TRXN.part_key ,FRONT_OFFICE_TRXN.TRXN_INTRL_ID' pknames ,FRONT_OFFICE_TRXN.
@@ -30983,7 +30998,7 @@
 ETL_FILEID pk1,FRONT_OFFICE_TRXN.ETL_BATCHID PK2,FRONT_OFFICE_TRXN.part_key pk3,FRONT_OFFICE_TRXN.TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,FRONT_OFFICE_TRXN.CSTM_1_DT errcol   from FRONT_OFFICE_TRXN where Not(FRONT_OFFICE_TRXN.CSTM_1_DT is   null or FRONT_OFFICE_TRXN.CSTM_1_DT = '') and (CSTM_1_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
         <v>29</v>
       </c>
@@ -31031,7 +31046,7 @@
       <c r="R18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="54" t="str">
+      <c r="S18" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_FRONT_OFFICE_TRXN_3','FRONT_OFFICE_TRXN.
 ETL_FILEID ,FRONT_OFFICE_TRXN.ETL_BATCHID ,FRONT_OFFICE_TRXN.part_key ,FRONT_OFFICE_TRXN.TRXN_INTRL_ID' pknames ,FRONT_OFFICE_TRXN.
@@ -31050,7 +31065,7 @@
 ETL_FILEID pk1,FRONT_OFFICE_TRXN.ETL_BATCHID PK2,FRONT_OFFICE_TRXN.part_key pk3,FRONT_OFFICE_TRXN.TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,FRONT_OFFICE_TRXN.TRXN_EXCTN_TM errcol   from FRONT_OFFICE_TRXN where Not(FRONT_OFFICE_TRXN.TRXN_EXCTN_TM is   null or FRONT_OFFICE_TRXN.TRXN_EXCTN_TM = '') and (TRXN_EXCTN_TM rlike  '^([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9][Z])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
         <v>29</v>
       </c>
@@ -31098,7 +31113,7 @@
       <c r="R19" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="54" t="str">
+      <c r="S19" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_JOURNAL_1','JOURNAL.
 ETL_FILEID ,JOURNAL.ETL_BATCHID ,JOURNAL.part_key ,JOURNAL.BO_TRXN_INTRL_ID' pknames ,JOURNAL.
@@ -31117,7 +31132,7 @@
 ETL_FILEID pk1,JOURNAL.ETL_BATCHID PK2,JOURNAL.part_key pk3,JOURNAL.BO_TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,JOURNAL.POSTG_TM errcol   from JOURNAL where Not(JOURNAL.POSTG_TM is   null or JOURNAL.POSTG_TM = '') and (POSTG_TM rlike  '^([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9][Z])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
         <v>29</v>
       </c>
@@ -31165,7 +31180,7 @@
       <c r="R20" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="54" t="str">
+      <c r="S20" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_JOURNAL_2','JOURNAL.
 ETL_FILEID ,JOURNAL.ETL_BATCHID ,JOURNAL.part_key ,JOURNAL.BO_TRXN_INTRL_ID' pknames ,JOURNAL.
@@ -31184,7 +31199,7 @@
 ETL_FILEID pk1,JOURNAL.ETL_BATCHID PK2,JOURNAL.part_key pk3,JOURNAL.BO_TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,JOURNAL.EXCTN_TM errcol   from JOURNAL where Not(JOURNAL.EXCTN_TM is   null or JOURNAL.EXCTN_TM = '') and (EXCTN_TM rlike  '^([01]?[0-9]|2[0-3]):([0-5][0-9]):([0-5][0-9][Z])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
         <v>29</v>
       </c>
@@ -31232,7 +31247,7 @@
       <c r="R21" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="54" t="str">
+      <c r="S21" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_JOURNAL_3','JOURNAL.
 ETL_FILEID ,JOURNAL.ETL_BATCHID ,JOURNAL.part_key ,JOURNAL.BO_TRXN_INTRL_ID' pknames ,JOURNAL.
@@ -31251,7 +31266,7 @@
 ETL_FILEID pk1,JOURNAL.ETL_BATCHID PK2,JOURNAL.part_key pk3,JOURNAL.BO_TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,JOURNAL.POSTG_DT errcol   from JOURNAL where Not(JOURNAL.POSTG_DT is   null or JOURNAL.POSTG_DT = '') and (POSTG_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
         <v>29</v>
       </c>
@@ -31299,7 +31314,7 @@
       <c r="R22" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S22" s="54" t="str">
+      <c r="S22" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_JOURNAL_4','JOURNAL.
 ETL_FILEID ,JOURNAL.ETL_BATCHID ,JOURNAL.part_key ,JOURNAL.BO_TRXN_INTRL_ID' pknames ,JOURNAL.
@@ -31318,7 +31333,7 @@
 ETL_FILEID pk1,JOURNAL.ETL_BATCHID PK2,JOURNAL.part_key pk3,JOURNAL.BO_TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,JOURNAL.ASOF_DT errcol   from JOURNAL where Not(JOURNAL.ASOF_DT is   null or JOURNAL.ASOF_DT = '') and (ASOF_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
         <v>29</v>
       </c>
@@ -31366,7 +31381,7 @@
       <c r="R23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="54" t="str">
+      <c r="S23" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_JOURNAL_5','JOURNAL.
 ETL_FILEID ,JOURNAL.ETL_BATCHID ,JOURNAL.part_key ,JOURNAL.BO_TRXN_INTRL_ID' pknames ,JOURNAL.
@@ -31385,7 +31400,7 @@
 ETL_FILEID pk1,JOURNAL.ETL_BATCHID PK2,JOURNAL.part_key pk3,JOURNAL.BO_TRXN_INTRL_ID pk4,'-' pk5,'-' pk6,'-' pk7,'-' pk8,JOURNAL.MKTVAL_ASOF_DT errcol   from JOURNAL where Not(JOURNAL.MKTVAL_ASOF_DT is   null or JOURNAL.MKTVAL_ASOF_DT = '') and (MKTVAL_ASOF_DT rlike  '^(19|20)\\d\\d(0[1-9]|1[012])(0[1-9]|[12][0-9]|3[01])$' )~DATA _TYPE_CHK~2016-07-13</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
         <v>29</v>
       </c>
@@ -31433,7 +31448,7 @@
       <c r="R24" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S24" s="54" t="str">
+      <c r="S24" s="143" t="str">
         <f t="shared" si="2"/>
         <v>select 'DQ_FMT_JOURNAL_6','JOURNAL.
 ETL_FILEID ,JOURNAL.ETL_BATCHID ,JOURNAL.part_key ,JOURNAL.BO_TRXN_INTRL_ID' pknames ,JOURNAL.
@@ -31471,7 +31486,7 @@
       <c r="P25" s="54"/>
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
-      <c r="S25" s="54"/>
+      <c r="S25" s="143"/>
       <c r="T25" s="56"/>
       <c r="U25" s="56"/>
     </row>
@@ -31494,7 +31509,7 @@
       <c r="P26" s="54"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
-      <c r="S26" s="54"/>
+      <c r="S26" s="143"/>
       <c r="T26" s="56"/>
       <c r="U26" s="56"/>
     </row>
@@ -31517,7 +31532,7 @@
       <c r="P27" s="54"/>
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
-      <c r="S27" s="54"/>
+      <c r="S27" s="143"/>
       <c r="T27" s="56"/>
       <c r="U27" s="56"/>
     </row>
@@ -31540,7 +31555,7 @@
       <c r="P28" s="54"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
-      <c r="S28" s="54"/>
+      <c r="S28" s="143"/>
       <c r="T28" s="56"/>
       <c r="U28" s="56"/>
     </row>
@@ -31563,7 +31578,7 @@
       <c r="P29" s="54"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
-      <c r="S29" s="54"/>
+      <c r="S29" s="143"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
     </row>
@@ -31586,7 +31601,7 @@
       <c r="P30" s="54"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
-      <c r="S30" s="54"/>
+      <c r="S30" s="143"/>
       <c r="T30" s="56"/>
       <c r="U30" s="56"/>
     </row>
@@ -31609,7 +31624,7 @@
       <c r="P31" s="54"/>
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
-      <c r="S31" s="54"/>
+      <c r="S31" s="143"/>
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
     </row>
@@ -31632,7 +31647,7 @@
       <c r="P32" s="54"/>
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
-      <c r="S32" s="54"/>
+      <c r="S32" s="143"/>
       <c r="T32" s="56"/>
       <c r="U32" s="56"/>
     </row>
@@ -31655,7 +31670,7 @@
       <c r="P33" s="54"/>
       <c r="Q33" s="55"/>
       <c r="R33" s="55"/>
-      <c r="S33" s="54"/>
+      <c r="S33" s="143"/>
       <c r="T33" s="56"/>
       <c r="U33" s="56"/>
     </row>
@@ -31678,7 +31693,7 @@
       <c r="P34" s="54"/>
       <c r="Q34" s="55"/>
       <c r="R34" s="55"/>
-      <c r="S34" s="54"/>
+      <c r="S34" s="143"/>
       <c r="T34" s="56"/>
       <c r="U34" s="56"/>
     </row>
@@ -31701,7 +31716,7 @@
       <c r="P35" s="54"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="55"/>
-      <c r="S35" s="54"/>
+      <c r="S35" s="143"/>
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
     </row>
@@ -31724,7 +31739,7 @@
       <c r="P36" s="54"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
-      <c r="S36" s="54"/>
+      <c r="S36" s="143"/>
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
     </row>
@@ -31747,7 +31762,7 @@
       <c r="P37" s="54"/>
       <c r="Q37" s="55"/>
       <c r="R37" s="55"/>
-      <c r="S37" s="54"/>
+      <c r="S37" s="143"/>
       <c r="T37" s="56"/>
       <c r="U37" s="56"/>
     </row>
@@ -31770,7 +31785,7 @@
       <c r="P38" s="54"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="55"/>
-      <c r="S38" s="54"/>
+      <c r="S38" s="143"/>
       <c r="T38" s="56"/>
       <c r="U38" s="56"/>
     </row>
@@ -31793,7 +31808,7 @@
       <c r="P39" s="54"/>
       <c r="Q39" s="55"/>
       <c r="R39" s="55"/>
-      <c r="S39" s="54"/>
+      <c r="S39" s="143"/>
       <c r="T39" s="56"/>
       <c r="U39" s="56"/>
     </row>
@@ -31814,7 +31829,7 @@
       <c r="P40" s="54"/>
       <c r="Q40" s="55"/>
       <c r="R40" s="55"/>
-      <c r="S40" s="54"/>
+      <c r="S40" s="143"/>
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
     </row>
@@ -31835,7 +31850,7 @@
       <c r="P41" s="54"/>
       <c r="Q41" s="55"/>
       <c r="R41" s="55"/>
-      <c r="S41" s="54"/>
+      <c r="S41" s="143"/>
       <c r="T41" s="56"/>
       <c r="U41" s="56"/>
     </row>
@@ -31856,7 +31871,7 @@
       <c r="P42" s="54"/>
       <c r="Q42" s="55"/>
       <c r="R42" s="55"/>
-      <c r="S42" s="54"/>
+      <c r="S42" s="143"/>
       <c r="T42" s="56"/>
       <c r="U42" s="56"/>
     </row>
@@ -31877,7 +31892,7 @@
       <c r="P43" s="54"/>
       <c r="Q43" s="55"/>
       <c r="R43" s="55"/>
-      <c r="S43" s="54"/>
+      <c r="S43" s="143"/>
       <c r="T43" s="56"/>
       <c r="U43" s="56"/>
     </row>
@@ -31898,7 +31913,7 @@
       <c r="P44" s="54"/>
       <c r="Q44" s="55"/>
       <c r="R44" s="55"/>
-      <c r="S44" s="54"/>
+      <c r="S44" s="143"/>
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
     </row>
@@ -31919,7 +31934,7 @@
       <c r="P45" s="54"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="55"/>
-      <c r="S45" s="54"/>
+      <c r="S45" s="143"/>
       <c r="T45" s="56"/>
       <c r="U45" s="56"/>
     </row>
@@ -31940,7 +31955,7 @@
       <c r="P46" s="54"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="55"/>
-      <c r="S46" s="54"/>
+      <c r="S46" s="143"/>
       <c r="T46" s="56"/>
       <c r="U46" s="56"/>
     </row>
@@ -31961,7 +31976,7 @@
       <c r="P47" s="54"/>
       <c r="Q47" s="55"/>
       <c r="R47" s="55"/>
-      <c r="S47" s="54"/>
+      <c r="S47" s="143"/>
       <c r="T47" s="56"/>
       <c r="U47" s="56"/>
     </row>
@@ -31982,7 +31997,7 @@
       <c r="P48" s="54"/>
       <c r="Q48" s="55"/>
       <c r="R48" s="55"/>
-      <c r="S48" s="54"/>
+      <c r="S48" s="143"/>
       <c r="T48" s="56"/>
       <c r="U48" s="56"/>
     </row>
@@ -32003,7 +32018,7 @@
       <c r="P49" s="54"/>
       <c r="Q49" s="55"/>
       <c r="R49" s="55"/>
-      <c r="S49" s="54"/>
+      <c r="S49" s="143"/>
       <c r="T49" s="56"/>
       <c r="U49" s="56"/>
     </row>
@@ -32024,7 +32039,7 @@
       <c r="P50" s="54"/>
       <c r="Q50" s="55"/>
       <c r="R50" s="55"/>
-      <c r="S50" s="54"/>
+      <c r="S50" s="143"/>
       <c r="T50" s="56"/>
       <c r="U50" s="56"/>
     </row>
@@ -32045,7 +32060,7 @@
       <c r="P51" s="54"/>
       <c r="Q51" s="55"/>
       <c r="R51" s="55"/>
-      <c r="S51" s="54"/>
+      <c r="S51" s="143"/>
       <c r="T51" s="56"/>
       <c r="U51" s="56"/>
     </row>
@@ -32066,7 +32081,7 @@
       <c r="P52" s="54"/>
       <c r="Q52" s="55"/>
       <c r="R52" s="55"/>
-      <c r="S52" s="54"/>
+      <c r="S52" s="143"/>
       <c r="T52" s="56"/>
       <c r="U52" s="56"/>
     </row>
@@ -32087,7 +32102,7 @@
       <c r="P53" s="54"/>
       <c r="Q53" s="55"/>
       <c r="R53" s="55"/>
-      <c r="S53" s="54"/>
+      <c r="S53" s="143"/>
       <c r="T53" s="56"/>
       <c r="U53" s="56"/>
     </row>
@@ -32108,7 +32123,7 @@
       <c r="P54" s="54"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="55"/>
-      <c r="S54" s="54"/>
+      <c r="S54" s="143"/>
       <c r="T54" s="56"/>
       <c r="U54" s="56"/>
     </row>
@@ -32129,7 +32144,7 @@
       <c r="P55" s="54"/>
       <c r="Q55" s="55"/>
       <c r="R55" s="55"/>
-      <c r="S55" s="54"/>
+      <c r="S55" s="143"/>
       <c r="T55" s="56"/>
       <c r="U55" s="56"/>
     </row>
@@ -32150,7 +32165,7 @@
       <c r="P56" s="54"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="55"/>
-      <c r="S56" s="54"/>
+      <c r="S56" s="143"/>
       <c r="T56" s="56"/>
       <c r="U56" s="56"/>
     </row>
@@ -32171,7 +32186,7 @@
       <c r="P57" s="54"/>
       <c r="Q57" s="55"/>
       <c r="R57" s="55"/>
-      <c r="S57" s="54"/>
+      <c r="S57" s="143"/>
       <c r="T57" s="56"/>
       <c r="U57" s="56"/>
     </row>
@@ -32192,7 +32207,7 @@
       <c r="P58" s="54"/>
       <c r="Q58" s="55"/>
       <c r="R58" s="55"/>
-      <c r="S58" s="54"/>
+      <c r="S58" s="143"/>
       <c r="T58" s="56"/>
       <c r="U58" s="56"/>
     </row>
@@ -32213,7 +32228,7 @@
       <c r="P59" s="54"/>
       <c r="Q59" s="55"/>
       <c r="R59" s="55"/>
-      <c r="S59" s="54"/>
+      <c r="S59" s="143"/>
       <c r="T59" s="56"/>
       <c r="U59" s="56"/>
     </row>
@@ -32234,7 +32249,7 @@
       <c r="P60" s="54"/>
       <c r="Q60" s="55"/>
       <c r="R60" s="55"/>
-      <c r="S60" s="54"/>
+      <c r="S60" s="143"/>
       <c r="T60" s="56"/>
       <c r="U60" s="56"/>
     </row>
@@ -32255,7 +32270,7 @@
       <c r="P61" s="54"/>
       <c r="Q61" s="55"/>
       <c r="R61" s="55"/>
-      <c r="S61" s="54"/>
+      <c r="S61" s="143"/>
       <c r="T61" s="56"/>
       <c r="U61" s="56"/>
     </row>
@@ -32276,7 +32291,7 @@
       <c r="P62" s="54"/>
       <c r="Q62" s="55"/>
       <c r="R62" s="55"/>
-      <c r="S62" s="54"/>
+      <c r="S62" s="143"/>
       <c r="T62" s="56"/>
       <c r="U62" s="56"/>
     </row>
@@ -32297,7 +32312,7 @@
       <c r="P63" s="54"/>
       <c r="Q63" s="55"/>
       <c r="R63" s="55"/>
-      <c r="S63" s="54"/>
+      <c r="S63" s="143"/>
       <c r="T63" s="56"/>
       <c r="U63" s="56"/>
     </row>
@@ -32318,7 +32333,7 @@
       <c r="P64" s="54"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="55"/>
-      <c r="S64" s="54"/>
+      <c r="S64" s="143"/>
       <c r="T64" s="56"/>
       <c r="U64" s="56"/>
     </row>
@@ -32339,7 +32354,7 @@
       <c r="P65" s="54"/>
       <c r="Q65" s="55"/>
       <c r="R65" s="55"/>
-      <c r="S65" s="54"/>
+      <c r="S65" s="143"/>
       <c r="T65" s="56"/>
       <c r="U65" s="56"/>
     </row>
@@ -32360,7 +32375,7 @@
       <c r="P66" s="54"/>
       <c r="Q66" s="55"/>
       <c r="R66" s="55"/>
-      <c r="S66" s="54"/>
+      <c r="S66" s="143"/>
       <c r="T66" s="56"/>
       <c r="U66" s="56"/>
     </row>
@@ -32381,7 +32396,7 @@
       <c r="P67" s="54"/>
       <c r="Q67" s="55"/>
       <c r="R67" s="55"/>
-      <c r="S67" s="54"/>
+      <c r="S67" s="143"/>
       <c r="T67" s="56"/>
       <c r="U67" s="56"/>
     </row>
@@ -32402,7 +32417,7 @@
       <c r="P68" s="54"/>
       <c r="Q68" s="55"/>
       <c r="R68" s="55"/>
-      <c r="S68" s="54"/>
+      <c r="S68" s="143"/>
       <c r="T68" s="56"/>
       <c r="U68" s="56"/>
     </row>
@@ -32423,7 +32438,7 @@
       <c r="P69" s="54"/>
       <c r="Q69" s="55"/>
       <c r="R69" s="55"/>
-      <c r="S69" s="54"/>
+      <c r="S69" s="143"/>
       <c r="T69" s="56"/>
       <c r="U69" s="56"/>
     </row>
@@ -32444,7 +32459,7 @@
       <c r="P70" s="54"/>
       <c r="Q70" s="55"/>
       <c r="R70" s="55"/>
-      <c r="S70" s="54"/>
+      <c r="S70" s="143"/>
       <c r="T70" s="56"/>
       <c r="U70" s="56"/>
     </row>
@@ -32465,7 +32480,7 @@
       <c r="P71" s="54"/>
       <c r="Q71" s="55"/>
       <c r="R71" s="55"/>
-      <c r="S71" s="54"/>
+      <c r="S71" s="143"/>
       <c r="T71" s="56"/>
       <c r="U71" s="56"/>
     </row>
@@ -32486,7 +32501,7 @@
       <c r="P72" s="54"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="55"/>
-      <c r="S72" s="54"/>
+      <c r="S72" s="143"/>
       <c r="T72" s="56"/>
       <c r="U72" s="56"/>
     </row>
@@ -32507,7 +32522,7 @@
       <c r="P73" s="54"/>
       <c r="Q73" s="55"/>
       <c r="R73" s="55"/>
-      <c r="S73" s="54"/>
+      <c r="S73" s="143"/>
       <c r="T73" s="56"/>
       <c r="U73" s="56"/>
     </row>
@@ -32528,7 +32543,7 @@
       <c r="P74" s="54"/>
       <c r="Q74" s="55"/>
       <c r="R74" s="55"/>
-      <c r="S74" s="54"/>
+      <c r="S74" s="143"/>
       <c r="T74" s="56"/>
       <c r="U74" s="56"/>
     </row>
@@ -32549,7 +32564,7 @@
       <c r="P75" s="54"/>
       <c r="Q75" s="55"/>
       <c r="R75" s="55"/>
-      <c r="S75" s="54"/>
+      <c r="S75" s="143"/>
       <c r="T75" s="56"/>
       <c r="U75" s="56"/>
     </row>
@@ -32570,7 +32585,7 @@
       <c r="P76" s="54"/>
       <c r="Q76" s="55"/>
       <c r="R76" s="55"/>
-      <c r="S76" s="54"/>
+      <c r="S76" s="143"/>
       <c r="T76" s="56"/>
       <c r="U76" s="56"/>
     </row>
@@ -32591,7 +32606,7 @@
       <c r="P77" s="54"/>
       <c r="Q77" s="55"/>
       <c r="R77" s="55"/>
-      <c r="S77" s="54"/>
+      <c r="S77" s="143"/>
       <c r="T77" s="56"/>
       <c r="U77" s="56"/>
     </row>
@@ -32612,7 +32627,7 @@
       <c r="P78" s="54"/>
       <c r="Q78" s="55"/>
       <c r="R78" s="55"/>
-      <c r="S78" s="54"/>
+      <c r="S78" s="143"/>
       <c r="T78" s="56"/>
       <c r="U78" s="56"/>
     </row>
@@ -32633,7 +32648,7 @@
       <c r="P79" s="54"/>
       <c r="Q79" s="55"/>
       <c r="R79" s="55"/>
-      <c r="S79" s="54"/>
+      <c r="S79" s="143"/>
       <c r="T79" s="56"/>
       <c r="U79" s="56"/>
     </row>
@@ -32654,7 +32669,7 @@
       <c r="P80" s="54"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="55"/>
-      <c r="S80" s="54"/>
+      <c r="S80" s="143"/>
       <c r="T80" s="56"/>
       <c r="U80" s="56"/>
     </row>
@@ -32675,7 +32690,7 @@
       <c r="P81" s="54"/>
       <c r="Q81" s="55"/>
       <c r="R81" s="55"/>
-      <c r="S81" s="54"/>
+      <c r="S81" s="143"/>
       <c r="T81" s="56"/>
       <c r="U81" s="56"/>
     </row>
@@ -32696,7 +32711,7 @@
       <c r="P82" s="54"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="55"/>
-      <c r="S82" s="54"/>
+      <c r="S82" s="143"/>
       <c r="T82" s="56"/>
       <c r="U82" s="56"/>
     </row>
@@ -32717,7 +32732,7 @@
       <c r="P83" s="54"/>
       <c r="Q83" s="55"/>
       <c r="R83" s="55"/>
-      <c r="S83" s="54"/>
+      <c r="S83" s="143"/>
       <c r="T83" s="56"/>
       <c r="U83" s="56"/>
     </row>
@@ -32738,7 +32753,7 @@
       <c r="P84" s="54"/>
       <c r="Q84" s="55"/>
       <c r="R84" s="55"/>
-      <c r="S84" s="54"/>
+      <c r="S84" s="143"/>
       <c r="T84" s="56"/>
       <c r="U84" s="56"/>
     </row>
@@ -32759,7 +32774,7 @@
       <c r="P85" s="54"/>
       <c r="Q85" s="55"/>
       <c r="R85" s="55"/>
-      <c r="S85" s="54"/>
+      <c r="S85" s="143"/>
       <c r="T85" s="56"/>
       <c r="U85" s="56"/>
     </row>
@@ -32780,7 +32795,7 @@
       <c r="P86" s="54"/>
       <c r="Q86" s="55"/>
       <c r="R86" s="55"/>
-      <c r="S86" s="54"/>
+      <c r="S86" s="143"/>
       <c r="T86" s="56"/>
       <c r="U86" s="56"/>
     </row>
@@ -32801,7 +32816,7 @@
       <c r="P87" s="54"/>
       <c r="Q87" s="55"/>
       <c r="R87" s="55"/>
-      <c r="S87" s="54"/>
+      <c r="S87" s="143"/>
       <c r="T87" s="56"/>
       <c r="U87" s="56"/>
     </row>
@@ -32822,7 +32837,7 @@
       <c r="P88" s="54"/>
       <c r="Q88" s="55"/>
       <c r="R88" s="55"/>
-      <c r="S88" s="54"/>
+      <c r="S88" s="143"/>
       <c r="T88" s="56"/>
       <c r="U88" s="56"/>
     </row>
@@ -32843,7 +32858,7 @@
       <c r="P89" s="54"/>
       <c r="Q89" s="55"/>
       <c r="R89" s="55"/>
-      <c r="S89" s="54"/>
+      <c r="S89" s="143"/>
       <c r="T89" s="56"/>
       <c r="U89" s="56"/>
     </row>
@@ -32864,7 +32879,7 @@
       <c r="P90" s="54"/>
       <c r="Q90" s="55"/>
       <c r="R90" s="55"/>
-      <c r="S90" s="54"/>
+      <c r="S90" s="143"/>
       <c r="T90" s="56"/>
       <c r="U90" s="56"/>
     </row>
@@ -32887,7 +32902,7 @@
       <c r="P98" s="13"/>
       <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
+      <c r="S98" s="145"/>
       <c r="T98" s="13"/>
       <c r="U98" s="13"/>
     </row>
@@ -32910,7 +32925,7 @@
       <c r="P99" s="13"/>
       <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
+      <c r="S99" s="145"/>
       <c r="T99" s="13"/>
       <c r="U99" s="13"/>
     </row>
@@ -32933,7 +32948,7 @@
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
       <c r="R114" s="13"/>
-      <c r="S114" s="13"/>
+      <c r="S114" s="145"/>
       <c r="T114" s="13"/>
       <c r="U114" s="13"/>
     </row>
@@ -32956,7 +32971,7 @@
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
       <c r="R115" s="13"/>
-      <c r="S115" s="13"/>
+      <c r="S115" s="145"/>
       <c r="T115" s="13"/>
       <c r="U115" s="13"/>
     </row>
@@ -32979,7 +32994,7 @@
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
       <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
+      <c r="S116" s="145"/>
       <c r="T116" s="13"/>
       <c r="U116" s="13"/>
     </row>
@@ -33002,7 +33017,7 @@
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
       <c r="R117" s="13"/>
-      <c r="S117" s="13"/>
+      <c r="S117" s="145"/>
       <c r="T117" s="13"/>
       <c r="U117" s="13"/>
     </row>
@@ -33025,7 +33040,7 @@
       <c r="P118" s="13"/>
       <c r="Q118" s="13"/>
       <c r="R118" s="13"/>
-      <c r="S118" s="13"/>
+      <c r="S118" s="145"/>
       <c r="T118" s="13"/>
       <c r="U118" s="13"/>
     </row>
@@ -33048,7 +33063,7 @@
       <c r="P119" s="13"/>
       <c r="Q119" s="13"/>
       <c r="R119" s="13"/>
-      <c r="S119" s="13"/>
+      <c r="S119" s="145"/>
       <c r="T119" s="13"/>
       <c r="U119" s="13"/>
     </row>
@@ -33071,7 +33086,7 @@
       <c r="P120" s="13"/>
       <c r="Q120" s="13"/>
       <c r="R120" s="13"/>
-      <c r="S120" s="13"/>
+      <c r="S120" s="145"/>
       <c r="T120" s="13"/>
       <c r="U120" s="13"/>
     </row>
@@ -33094,7 +33109,7 @@
       <c r="P121" s="13"/>
       <c r="Q121" s="13"/>
       <c r="R121" s="13"/>
-      <c r="S121" s="13"/>
+      <c r="S121" s="145"/>
       <c r="T121" s="13"/>
       <c r="U121" s="13"/>
     </row>
@@ -33117,7 +33132,7 @@
       <c r="P122" s="13"/>
       <c r="Q122" s="13"/>
       <c r="R122" s="13"/>
-      <c r="S122" s="13"/>
+      <c r="S122" s="145"/>
       <c r="T122" s="13"/>
       <c r="U122" s="13"/>
     </row>
@@ -33140,7 +33155,7 @@
       <c r="P123" s="13"/>
       <c r="Q123" s="13"/>
       <c r="R123" s="13"/>
-      <c r="S123" s="13"/>
+      <c r="S123" s="145"/>
       <c r="T123" s="13"/>
       <c r="U123" s="13"/>
     </row>
@@ -33163,7 +33178,7 @@
       <c r="P124" s="13"/>
       <c r="Q124" s="13"/>
       <c r="R124" s="13"/>
-      <c r="S124" s="13"/>
+      <c r="S124" s="145"/>
       <c r="T124" s="13"/>
       <c r="U124" s="13"/>
     </row>
@@ -33186,7 +33201,7 @@
       <c r="P125" s="13"/>
       <c r="Q125" s="13"/>
       <c r="R125" s="13"/>
-      <c r="S125" s="13"/>
+      <c r="S125" s="145"/>
       <c r="T125" s="13"/>
       <c r="U125" s="13"/>
     </row>
@@ -33209,7 +33224,7 @@
       <c r="P126" s="13"/>
       <c r="Q126" s="13"/>
       <c r="R126" s="13"/>
-      <c r="S126" s="13"/>
+      <c r="S126" s="145"/>
       <c r="T126" s="13"/>
       <c r="U126" s="13"/>
     </row>
@@ -33232,7 +33247,7 @@
       <c r="P127" s="13"/>
       <c r="Q127" s="13"/>
       <c r="R127" s="13"/>
-      <c r="S127" s="13"/>
+      <c r="S127" s="145"/>
       <c r="T127" s="13"/>
       <c r="U127" s="13"/>
     </row>
@@ -33255,7 +33270,7 @@
       <c r="P128" s="13"/>
       <c r="Q128" s="13"/>
       <c r="R128" s="13"/>
-      <c r="S128" s="13"/>
+      <c r="S128" s="145"/>
       <c r="T128" s="13"/>
       <c r="U128" s="13"/>
     </row>
@@ -33278,7 +33293,7 @@
       <c r="P129" s="13"/>
       <c r="Q129" s="13"/>
       <c r="R129" s="13"/>
-      <c r="S129" s="13"/>
+      <c r="S129" s="145"/>
       <c r="T129" s="13"/>
       <c r="U129" s="13"/>
     </row>
@@ -33301,7 +33316,7 @@
       <c r="P130" s="13"/>
       <c r="Q130" s="13"/>
       <c r="R130" s="13"/>
-      <c r="S130" s="13"/>
+      <c r="S130" s="145"/>
       <c r="T130" s="13"/>
       <c r="U130" s="13"/>
     </row>
@@ -33324,7 +33339,7 @@
       <c r="P131" s="13"/>
       <c r="Q131" s="13"/>
       <c r="R131" s="13"/>
-      <c r="S131" s="13"/>
+      <c r="S131" s="145"/>
       <c r="T131" s="13"/>
       <c r="U131" s="13"/>
     </row>
@@ -33347,7 +33362,7 @@
       <c r="P132" s="13"/>
       <c r="Q132" s="13"/>
       <c r="R132" s="13"/>
-      <c r="S132" s="13"/>
+      <c r="S132" s="145"/>
       <c r="T132" s="13"/>
       <c r="U132" s="13"/>
     </row>
@@ -33370,7 +33385,7 @@
       <c r="P133" s="13"/>
       <c r="Q133" s="13"/>
       <c r="R133" s="13"/>
-      <c r="S133" s="13"/>
+      <c r="S133" s="145"/>
       <c r="T133" s="13"/>
       <c r="U133" s="13"/>
     </row>
@@ -33393,7 +33408,7 @@
       <c r="P134" s="13"/>
       <c r="Q134" s="13"/>
       <c r="R134" s="13"/>
-      <c r="S134" s="13"/>
+      <c r="S134" s="145"/>
       <c r="T134" s="13"/>
       <c r="U134" s="13"/>
     </row>
@@ -33416,7 +33431,7 @@
       <c r="P135" s="13"/>
       <c r="Q135" s="13"/>
       <c r="R135" s="13"/>
-      <c r="S135" s="13"/>
+      <c r="S135" s="145"/>
       <c r="T135" s="13"/>
       <c r="U135" s="13"/>
     </row>
@@ -33439,7 +33454,7 @@
       <c r="P136" s="13"/>
       <c r="Q136" s="13"/>
       <c r="R136" s="13"/>
-      <c r="S136" s="13"/>
+      <c r="S136" s="145"/>
       <c r="T136" s="13"/>
       <c r="U136" s="13"/>
     </row>
@@ -33462,7 +33477,7 @@
       <c r="P137" s="13"/>
       <c r="Q137" s="13"/>
       <c r="R137" s="13"/>
-      <c r="S137" s="13"/>
+      <c r="S137" s="145"/>
       <c r="T137" s="13"/>
       <c r="U137" s="13"/>
     </row>
@@ -33485,7 +33500,7 @@
       <c r="P138" s="13"/>
       <c r="Q138" s="13"/>
       <c r="R138" s="13"/>
-      <c r="S138" s="13"/>
+      <c r="S138" s="145"/>
       <c r="T138" s="13"/>
       <c r="U138" s="13"/>
     </row>
@@ -33508,7 +33523,7 @@
       <c r="P139" s="13"/>
       <c r="Q139" s="13"/>
       <c r="R139" s="13"/>
-      <c r="S139" s="13"/>
+      <c r="S139" s="145"/>
       <c r="T139" s="13"/>
       <c r="U139" s="13"/>
     </row>
@@ -33531,7 +33546,7 @@
       <c r="P140" s="13"/>
       <c r="Q140" s="13"/>
       <c r="R140" s="13"/>
-      <c r="S140" s="13"/>
+      <c r="S140" s="145"/>
       <c r="T140" s="13"/>
       <c r="U140" s="13"/>
     </row>
@@ -33554,7 +33569,7 @@
       <c r="P141" s="13"/>
       <c r="Q141" s="13"/>
       <c r="R141" s="13"/>
-      <c r="S141" s="13"/>
+      <c r="S141" s="145"/>
       <c r="T141" s="13"/>
       <c r="U141" s="13"/>
     </row>
@@ -33577,7 +33592,7 @@
       <c r="P142" s="13"/>
       <c r="Q142" s="13"/>
       <c r="R142" s="13"/>
-      <c r="S142" s="13"/>
+      <c r="S142" s="145"/>
       <c r="T142" s="13"/>
       <c r="U142" s="13"/>
     </row>
@@ -33600,7 +33615,7 @@
       <c r="P143" s="13"/>
       <c r="Q143" s="13"/>
       <c r="R143" s="13"/>
-      <c r="S143" s="13"/>
+      <c r="S143" s="145"/>
       <c r="T143" s="13"/>
       <c r="U143" s="13"/>
     </row>
@@ -33623,7 +33638,7 @@
       <c r="P144" s="13"/>
       <c r="Q144" s="13"/>
       <c r="R144" s="13"/>
-      <c r="S144" s="13"/>
+      <c r="S144" s="145"/>
       <c r="T144" s="13"/>
       <c r="U144" s="13"/>
     </row>
@@ -33646,7 +33661,7 @@
       <c r="P145" s="13"/>
       <c r="Q145" s="13"/>
       <c r="R145" s="13"/>
-      <c r="S145" s="13"/>
+      <c r="S145" s="145"/>
       <c r="T145" s="13"/>
       <c r="U145" s="13"/>
     </row>
@@ -33669,7 +33684,7 @@
       <c r="P146" s="13"/>
       <c r="Q146" s="13"/>
       <c r="R146" s="13"/>
-      <c r="S146" s="13"/>
+      <c r="S146" s="145"/>
       <c r="T146" s="13"/>
       <c r="U146" s="13"/>
     </row>
@@ -33691,7 +33706,7 @@
   </sheetPr>
   <dimension ref="A1:AX188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
